--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2558.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2558.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.102205480230995</v>
+        <v>1.742069482803345</v>
       </c>
       <c r="B1">
-        <v>1.741770787833277</v>
+        <v>1.713589191436768</v>
       </c>
       <c r="C1">
-        <v>3.79651730544327</v>
+        <v>7.653044700622559</v>
       </c>
       <c r="D1">
-        <v>2.059780091544277</v>
+        <v>1.107338070869446</v>
       </c>
       <c r="E1">
-        <v>0.7925788881709879</v>
+        <v>0.4277065992355347</v>
       </c>
     </row>
   </sheetData>
